--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7651113333333331</v>
+        <v>0.1999913333333333</v>
       </c>
       <c r="N2">
-        <v>2.295334</v>
+        <v>0.599974</v>
       </c>
       <c r="O2">
-        <v>0.1330257938600751</v>
+        <v>0.03856011821502105</v>
       </c>
       <c r="P2">
-        <v>0.1330257938600751</v>
+        <v>0.03856011821502105</v>
       </c>
       <c r="Q2">
-        <v>155.9156611619995</v>
+        <v>16.59681697343133</v>
       </c>
       <c r="R2">
-        <v>1403.240950457996</v>
+        <v>149.371352760882</v>
       </c>
       <c r="S2">
-        <v>0.08869265458494138</v>
+        <v>0.01731158094177254</v>
       </c>
       <c r="T2">
-        <v>0.0886926545849414</v>
+        <v>0.01731158094177254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.556037</v>
       </c>
       <c r="O3">
-        <v>0.1481348035016799</v>
+        <v>0.164275600079283</v>
       </c>
       <c r="P3">
-        <v>0.1481348035016799</v>
+        <v>0.164275600079283</v>
       </c>
       <c r="Q3">
-        <v>173.6244916031976</v>
+        <v>70.70652772673232</v>
       </c>
       <c r="R3">
-        <v>1562.620424428778</v>
+        <v>636.358749540591</v>
       </c>
       <c r="S3">
-        <v>0.09876632627205012</v>
+        <v>0.07375159826203377</v>
       </c>
       <c r="T3">
-        <v>0.09876632627205012</v>
+        <v>0.07375159826203377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.403433</v>
       </c>
       <c r="O4">
-        <v>0.718839402638245</v>
+        <v>0.7971642817056959</v>
       </c>
       <c r="P4">
-        <v>0.718839402638245</v>
+        <v>0.797164281705696</v>
       </c>
       <c r="Q4">
-        <v>842.530741440489</v>
+        <v>343.1107137029576</v>
       </c>
       <c r="R4">
-        <v>7582.776672964403</v>
+        <v>3087.996423326619</v>
       </c>
       <c r="S4">
-        <v>0.4792737783418289</v>
+        <v>0.3578872323389889</v>
       </c>
       <c r="T4">
-        <v>0.4792737783418289</v>
+        <v>0.3578872323389889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7651113333333331</v>
+        <v>0.1999913333333333</v>
       </c>
       <c r="N5">
-        <v>2.295334</v>
+        <v>0.599974</v>
       </c>
       <c r="O5">
-        <v>0.1330257938600751</v>
+        <v>0.03856011821502105</v>
       </c>
       <c r="P5">
-        <v>0.1330257938600751</v>
+        <v>0.03856011821502105</v>
       </c>
       <c r="Q5">
-        <v>48.3095804922791</v>
+        <v>12.62757064822578</v>
       </c>
       <c r="R5">
-        <v>434.7862244305119</v>
+        <v>113.648135834032</v>
       </c>
       <c r="S5">
-        <v>0.02748091438545893</v>
+        <v>0.01317139375126315</v>
       </c>
       <c r="T5">
-        <v>0.02748091438545893</v>
+        <v>0.01317139375126315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
         <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.556037</v>
       </c>
       <c r="O6">
-        <v>0.1481348035016799</v>
+        <v>0.164275600079283</v>
       </c>
       <c r="P6">
-        <v>0.1481348035016799</v>
+        <v>0.164275600079283</v>
       </c>
       <c r="Q6">
-        <v>53.79656084593511</v>
+        <v>53.7965608459351</v>
       </c>
       <c r="R6">
         <v>484.169047613416</v>
       </c>
       <c r="S6">
-        <v>0.030602184241189</v>
+        <v>0.05611338119618085</v>
       </c>
       <c r="T6">
-        <v>0.03060218424118899</v>
+        <v>0.05611338119618085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
         <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.403433</v>
       </c>
       <c r="O7">
-        <v>0.718839402638245</v>
+        <v>0.7971642817056959</v>
       </c>
       <c r="P7">
-        <v>0.718839402638245</v>
+        <v>0.797164281705696</v>
       </c>
       <c r="Q7">
         <v>261.0533564588382</v>
@@ -880,10 +880,10 @@
         <v>2349.480208129544</v>
       </c>
       <c r="S7">
-        <v>0.1485002532785103</v>
+        <v>0.2722959660092123</v>
       </c>
       <c r="T7">
-        <v>0.1485002532785103</v>
+        <v>0.2722959660092124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7651113333333331</v>
+        <v>0.1999913333333333</v>
       </c>
       <c r="N8">
-        <v>2.295334</v>
+        <v>0.599974</v>
       </c>
       <c r="O8">
-        <v>0.1330257938600751</v>
+        <v>0.03856011821502105</v>
       </c>
       <c r="P8">
-        <v>0.1330257938600751</v>
+        <v>0.03856011821502105</v>
       </c>
       <c r="Q8">
-        <v>29.62506645020932</v>
+        <v>7.743652827169334</v>
       </c>
       <c r="R8">
-        <v>266.6255980518839</v>
+        <v>69.69287544452401</v>
       </c>
       <c r="S8">
-        <v>0.0168522248896748</v>
+        <v>0.008077143521985367</v>
       </c>
       <c r="T8">
-        <v>0.0168522248896748</v>
+        <v>0.008077143521985367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.556037</v>
       </c>
       <c r="O9">
-        <v>0.1481348035016799</v>
+        <v>0.164275600079283</v>
       </c>
       <c r="P9">
-        <v>0.1481348035016799</v>
+        <v>0.164275600079283</v>
       </c>
       <c r="Q9">
         <v>32.98986812995133</v>
@@ -1004,10 +1004,10 @@
         <v>296.908813169562</v>
       </c>
       <c r="S9">
-        <v>0.01876629298844078</v>
+        <v>0.03441062062106843</v>
       </c>
       <c r="T9">
-        <v>0.01876629298844077</v>
+        <v>0.03441062062106843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>12.403433</v>
       </c>
       <c r="O10">
-        <v>0.718839402638245</v>
+        <v>0.7971642817056959</v>
       </c>
       <c r="P10">
-        <v>0.718839402638245</v>
+        <v>0.797164281705696</v>
       </c>
       <c r="Q10">
-        <v>160.0867354536286</v>
+        <v>160.0867354536287</v>
       </c>
       <c r="R10">
         <v>1440.780619082658</v>
       </c>
       <c r="S10">
-        <v>0.09106537101790581</v>
+        <v>0.1669810833574947</v>
       </c>
       <c r="T10">
-        <v>0.09106537101790581</v>
+        <v>0.1669810833574947</v>
       </c>
     </row>
   </sheetData>
